--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Hash Acme\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Generate Yearly Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Имя</t>
   </si>
@@ -74,30 +74,12 @@
     <t>Начало темы письма</t>
   </si>
   <si>
-    <t>WinCred</t>
-  </si>
-  <si>
-    <t>PathRequest</t>
-  </si>
-  <si>
-    <t>IN\Request.xlsx</t>
-  </si>
-  <si>
-    <t>Путь до файла с входными данными</t>
-  </si>
-  <si>
     <t>URL сайта, где заносятся данные</t>
   </si>
   <si>
     <t>REF_TEST</t>
   </si>
   <si>
-    <t>MailCred</t>
-  </si>
-  <si>
-    <t>Windows Credentials для почты</t>
-  </si>
-  <si>
     <t>* (Если Тип не указан, значение запишется напрямую в словарь dict_config)</t>
   </si>
   <si>
@@ -107,55 +89,88 @@
     <t>juikomathew@gmail.com</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>smtp.gmail.com</t>
   </si>
   <si>
     <t>AcmeTestURL</t>
   </si>
   <si>
+    <t>MailRecip</t>
+  </si>
+  <si>
+    <t>WorkItemDetailsURL</t>
+  </si>
+  <si>
+    <t>URL страницы дополнительных данных</t>
+  </si>
+  <si>
+    <t>WorkItemUpdateURL</t>
+  </si>
+  <si>
+    <t>URL для обновления items</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/update</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/reports/download</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/reports/upload</t>
+  </si>
+  <si>
+    <t>ReportsDownloadURL</t>
+  </si>
+  <si>
+    <t>ReportsUploadURL</t>
+  </si>
+  <si>
+    <t>URL для считывания отчетов за месяц</t>
+  </si>
+  <si>
+    <t>URL для загрузки единого отчета за все месяцы</t>
+  </si>
+  <si>
+    <t>EmailCred</t>
+  </si>
+  <si>
+    <t>MSJuiko_EmailCred</t>
+  </si>
+  <si>
     <t>AcmeCred</t>
   </si>
   <si>
-    <t>AcmeCredentials</t>
-  </si>
-  <si>
-    <t>Windows Credentials для входа в систему</t>
-  </si>
-  <si>
-    <t>MailRecip</t>
-  </si>
-  <si>
-    <t>WorkItemDetailsURL</t>
-  </si>
-  <si>
-    <t>URL страницы дополнительных данных</t>
-  </si>
-  <si>
-    <t>ShaURL</t>
-  </si>
-  <si>
-    <t>URL сайта, где получаем hash</t>
-  </si>
-  <si>
-    <t>https://codebeautify.org/sha1-hash-generator</t>
-  </si>
-  <si>
-    <t>WorkItemUpdateURL</t>
-  </si>
-  <si>
-    <t>URL для обновления items</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/update</t>
+    <t>MSJuiko_AcmeCred</t>
+  </si>
+  <si>
+    <t>AuthCredentials</t>
+  </si>
+  <si>
+    <t>Учетные данные для авторизации</t>
+  </si>
+  <si>
+    <t>MonthReportsFolderPath</t>
+  </si>
+  <si>
+    <t>Templates\MonthReports</t>
+  </si>
+  <si>
+    <t>YearReportFolderPath</t>
+  </si>
+  <si>
+    <t>Templates\YearReport</t>
+  </si>
+  <si>
+    <t>Путь для временных отчетов за месяц</t>
+  </si>
+  <si>
+    <t>Путь для временного отчета за год</t>
   </si>
 </sst>
 </file>
@@ -248,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -279,9 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -579,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -607,14 +619,14 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -624,174 +636,193 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
+      <c r="A19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="14"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="3"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -799,82 +830,93 @@
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="15"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="15"/>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="15"/>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="15"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="15"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2371,20 +2413,21 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D193:D544">
       <formula1>"AuthCredentials,SecureData,Text"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D6:D192">
       <formula1>"AuthCredentials,SecureData,Text,WinCred,Path,PathMaster"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B13" r:id="rId3"/>
-    <hyperlink ref="B14" r:id="rId4"/>
-    <hyperlink ref="B16" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId5"/>
     <hyperlink ref="B15" r:id="rId6"/>
+    <hyperlink ref="B16" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -2428,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2436,7 +2479,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -137,9 +137,6 @@
     <t>URL для загрузки единого отчета за все месяцы</t>
   </si>
   <si>
-    <t>EmailCred</t>
-  </si>
-  <si>
     <t>MSJuiko_EmailCred</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>Путь для временного отчета за год</t>
+  </si>
+  <si>
+    <t>MailCred</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -641,30 +641,30 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -790,25 +790,25 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>46</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="8"/>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Имя</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>MailCred</t>
+  </si>
+  <si>
+    <t>TitleOfSiteForTransition</t>
+  </si>
+  <si>
+    <t>Тайтл для перехода между транзакций</t>
+  </si>
+  <si>
+    <t>ACME System 1</t>
   </si>
 </sst>
 </file>
@@ -263,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -308,6 +317,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -592,7 +604,7 @@
   <dimension ref="A1:E544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -627,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -790,43 +802,53 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -846,21 +868,22 @@
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="3"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="13"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="3"/>
       <c r="D31" s="8"/>
     </row>
@@ -2409,7 +2432,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D193:D544">
       <formula1>"AuthCredentials,SecureData,Text"</formula1>
     </dataValidation>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Имя</t>
   </si>
@@ -152,34 +152,7 @@
     <t>Учетные данные для авторизации</t>
   </si>
   <si>
-    <t>MonthReportsFolderPath</t>
-  </si>
-  <si>
-    <t>Templates\MonthReports</t>
-  </si>
-  <si>
-    <t>YearReportFolderPath</t>
-  </si>
-  <si>
-    <t>Templates\YearReport</t>
-  </si>
-  <si>
-    <t>Путь для временных отчетов за месяц</t>
-  </si>
-  <si>
-    <t>Путь для временного отчета за год</t>
-  </si>
-  <si>
     <t>MailCred</t>
-  </si>
-  <si>
-    <t>TitleOfSiteForTransition</t>
-  </si>
-  <si>
-    <t>Тайтл для перехода между транзакций</t>
-  </si>
-  <si>
-    <t>ACME System 1</t>
   </si>
 </sst>
 </file>
@@ -604,7 +577,7 @@
   <dimension ref="A1:E544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -653,7 +626,7 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>37</v>
@@ -796,98 +769,77 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
+    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="3"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
+    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
+    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="C22" s="3"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="3"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="3"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="3"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="3"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="3"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
